--- a/data/metadata/Informe-05-050103-A-TP.xlsx
+++ b/data/metadata/Informe-05-050103-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>territorio</t>
   </si>
@@ -49,28 +49,16 @@
     <t>iaest-measure:-case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
   </si>
   <si>
-    <t>iaest-dimension:estrato</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:estrato</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>mapping-estrato.xlsx</t>
   </si>
 </sst>
 </file>
@@ -193,38 +181,33 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050103-A-TP.xlsx
+++ b/data/metadata/Informe-05-050103-A-TP.xlsx
@@ -11,51 +11,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
-  <si>
-    <t>territorio</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>numero-empresas</t>
-  </si>
-  <si>
-    <t>direccion-provincial-codigo</t>
-  </si>
-  <si>
-    <t>-case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
-  </si>
-  <si>
-    <t>estrato</t>
-  </si>
-  <si>
-    <t>direccion-provincial-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+  <si>
+    <t>Territorio:</t>
+  </si>
+  <si>
+    <t>CASE  WHEN Número Trabajadores (empr) &lt; 10 THEN '01 De 1 a 9 afiliados' WHEN Número Trabajadores (empr) &lt; 20 THEN '02 De 10 a 19 afiliados' WHEN Número Trabajadores (empr) &lt; 50 THEN '03 De 20 a 49 afiliados' WHEN Empre</t>
+  </si>
+  <si>
+    <t>Estrato</t>
+  </si>
+  <si>
+    <t>Número Empresas</t>
+  </si>
+  <si>
+    <t>Dirección provincial nombre</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>Dirección provincial (código)</t>
   </si>
   <si>
     <t>iaest-measure:territorio</t>
   </si>
   <si>
+    <t>iaest-measure:case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
+  </si>
+  <si>
+    <t>iaest-measure:estrato</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-empresas</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:numero-empresas</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:-case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
-  </si>
-  <si>
-    <t>iaest-measure:estrato</t>
-  </si>
-  <si>
-    <t>iaest-measure:direccion-provincial-nombre</t>
-  </si>
-  <si>
     <t>medida</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -175,7 +178,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -184,7 +187,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -198,7 +201,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -207,7 +210,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050103-A-TP.xlsx
+++ b/data/metadata/Informe-05-050103-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Territorio:</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t>Dirección provincial (código)</t>
+  </si>
+  <si>
+    <t>territorio</t>
+  </si>
+  <si>
+    <t>case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
+  </si>
+  <si>
+    <t>estrato</t>
+  </si>
+  <si>
+    <t>numero-empresas</t>
+  </si>
+  <si>
+    <t>direccion-provincial-nombre</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
+  </si>
+  <si>
+    <t>direccion-provincial-codigo</t>
   </si>
   <si>
     <t>iaest-measure:territorio</t>
@@ -172,45 +193,68 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050103-A-TP.xlsx
+++ b/data/metadata/Informe-05-050103-A-TP.xlsx
@@ -11,14 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Territorio:</t>
   </si>
   <si>
-    <t>CASE  WHEN Número Trabajadores (empr) &lt; 10 THEN '01 De 1 a 9 afiliados' WHEN Número Trabajadores (empr) &lt; 20 THEN '02 De 10 a 19 afiliados' WHEN Número Trabajadores (empr) &lt; 50 THEN '03 De 20 a 49 afiliados' WHEN Empre</t>
-  </si>
-  <si>
     <t>Estrato</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>territorio</t>
   </si>
   <si>
-    <t>case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
-  </si>
-  <si>
     <t>estrato</t>
   </si>
   <si>
@@ -58,19 +52,16 @@
     <t>iaest-measure:territorio</t>
   </si>
   <si>
-    <t>iaest-measure:case--when-numero-trabajadores-empr--10-then-01-de-1-a-9-afiliados-when-numero-trabajadores-empr--20-then-02-de-10-a-19-afiliados-when-numero-trabajadores-empr--50-then-03-de-20-a-49-afiliados-when-empre</t>
-  </si>
-  <si>
-    <t>iaest-measure:estrato</t>
+    <t>iaest-dimension:estrato</t>
   </si>
   <si>
     <t>iaest-measure:numero-empresas</t>
   </si>
   <si>
-    <t>iaest-measure:direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:mes-y-ano</t>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-dimension:mes-y-ano</t>
   </si>
   <si>
     <t>null</t>
@@ -79,10 +70,22 @@
     <t>medida</t>
   </si>
   <si>
+    <t>dim</t>
+  </si>
+  <si>
     <t>xsd:string</t>
   </si>
   <si>
+    <t>skos:Concept</t>
+  </si>
+  <si>
     <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>mapping-estrato.xlsx</t>
   </si>
 </sst>
 </file>
@@ -161,85 +164,73 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -248,13 +239,15 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
